--- a/ArticleManage/main_working_folder/output_folders/Data 60 Preparation of porous carbons/Data60_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 60 Preparation of porous carbons/Data60_all_graphs_excel.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="500" sheetId="1" r:id="rId1"/>
-    <sheet name="57%" sheetId="2" r:id="rId4"/>
-    <sheet name="600" sheetId="3" r:id="rId5"/>
-    <sheet name="68%" sheetId="4" r:id="rId6"/>
-    <sheet name="700" sheetId="5" r:id="rId7"/>
-    <sheet name="78%" sheetId="6" r:id="rId8"/>
-    <sheet name="800" sheetId="7" r:id="rId9"/>
-    <sheet name="900" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 1 500  0-1-0-800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 600  0-1-0-800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 700  0-1-0-800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 800  0-1-0-800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 900  0-1-0-800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 57%  0-1-0-800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 68%  0-1-0-800 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 78%  0-1-0-800 " sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -101,7 +101,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 500</a:t>
+              <a:t>Izoterma adsorpcji probki 500 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -160,12 +160,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 500  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 500  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -178,6 +178,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -247,6 +249,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -411,7 +415,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 57%</a:t>
+              <a:t>Izoterma adsorpcji probki 600 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -470,12 +474,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'57%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 600  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'57%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 600  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -488,6 +492,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -557,6 +563,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -721,7 +729,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 600</a:t>
+              <a:t>Izoterma adsorpcji probki 700 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -780,12 +788,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 700  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 700  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -798,6 +806,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -867,6 +877,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1031,7 +1043,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 68%</a:t>
+              <a:t>Izoterma adsorpcji probki 800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1090,12 +1102,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'68%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 800  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'68%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 800  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1108,6 +1120,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1177,6 +1191,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1341,7 +1357,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700</a:t>
+              <a:t>Izoterma adsorpcji probki 900 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1400,12 +1416,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 900  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 900  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1418,6 +1434,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1487,6 +1505,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1651,7 +1671,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 78%</a:t>
+              <a:t>Izoterma adsorpcji probki 57% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1710,12 +1730,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'78%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 57%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'78%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 57%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1728,6 +1748,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1797,6 +1819,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1961,7 +1985,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800</a:t>
+              <a:t>Izoterma adsorpcji probki 68% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2020,12 +2044,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 68%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 68%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2038,6 +2062,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2107,6 +2133,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2271,7 +2299,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 900</a:t>
+              <a:t>Izoterma adsorpcji probki 78% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2330,12 +2358,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'900'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 78%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'900'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 78%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2348,6 +2376,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2417,6 +2447,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8009,7 +8041,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8017,7 +8049,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.57</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2">
@@ -8030,397 +8062,381 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0068</v>
       </c>
       <c r="B3" s="0">
-        <v>339.0547</v>
+        <v>276.725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0283</v>
       </c>
       <c r="B4" s="0">
-        <v>360.6176</v>
+        <v>296.6719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0497</v>
       </c>
       <c r="B5" s="0">
-        <v>379.6632</v>
+        <v>310.159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0687</v>
       </c>
       <c r="B6" s="0">
-        <v>393.2598</v>
+        <v>315.835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.0896</v>
       </c>
       <c r="B7" s="0">
-        <v>404.3732</v>
+        <v>321.0797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1104</v>
       </c>
       <c r="B8" s="0">
-        <v>414.1816</v>
+        <v>325.6655</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1319</v>
       </c>
       <c r="B9" s="0">
-        <v>423.3942</v>
+        <v>329.3336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1539</v>
       </c>
       <c r="B10" s="0">
-        <v>431.4562</v>
+        <v>332.2192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1754</v>
       </c>
       <c r="B11" s="0">
-        <v>438.0724</v>
+        <v>333.7842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.1974</v>
       </c>
       <c r="B12" s="0">
-        <v>443.5115</v>
+        <v>335.1754</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2179</v>
       </c>
       <c r="B13" s="0">
-        <v>447.7997</v>
+        <v>337.4733</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.2427</v>
       </c>
       <c r="B14" s="0">
-        <v>452.9431</v>
+        <v>339.2619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.2611</v>
       </c>
       <c r="B15" s="0">
-        <v>456.4121</v>
+        <v>340.2852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="B16" s="0">
-        <v>459.4613</v>
+        <v>342.4631</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.3058</v>
       </c>
       <c r="B17" s="0">
-        <v>462.1505</v>
+        <v>341.7015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.3269</v>
       </c>
       <c r="B18" s="0">
-        <v>463.2666</v>
+        <v>343.957</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="B19" s="0">
-        <v>466.091</v>
+        <v>343.6776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.3685</v>
       </c>
       <c r="B20" s="0">
-        <v>467.7907</v>
+        <v>344.0172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.393</v>
       </c>
       <c r="B21" s="0">
-        <v>468.287</v>
+        <v>344.5719</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.412</v>
       </c>
       <c r="B22" s="0">
-        <v>469.7919</v>
+        <v>345.5873</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.4342</v>
       </c>
       <c r="B23" s="0">
-        <v>469.8206</v>
+        <v>346.6603</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.454</v>
       </c>
       <c r="B24" s="0">
-        <v>471.0334</v>
+        <v>344.8777</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.4772</v>
       </c>
       <c r="B25" s="0">
-        <v>472.6279</v>
+        <v>347.8697</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.4992</v>
       </c>
       <c r="B26" s="0">
-        <v>472.8185</v>
+        <v>346.2068</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.5201</v>
       </c>
       <c r="B27" s="0">
-        <v>473.112</v>
+        <v>348.4388</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.5432</v>
       </c>
       <c r="B28" s="0">
-        <v>473.7826</v>
+        <v>348.0933</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.5617</v>
       </c>
       <c r="B29" s="0">
-        <v>475.3979</v>
+        <v>348.6522</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.5845</v>
       </c>
       <c r="B30" s="0">
-        <v>475.5242</v>
+        <v>350.2173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.6041</v>
       </c>
       <c r="B31" s="0">
-        <v>475.7252</v>
+        <v>348.7011</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.6274</v>
       </c>
       <c r="B32" s="0">
-        <v>476.2424</v>
+        <v>350.9998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.62</v>
+        <v>0.6495</v>
       </c>
       <c r="B33" s="0">
-        <v>476.2969</v>
+        <v>349.4347</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.64</v>
+        <v>0.6704</v>
       </c>
       <c r="B34" s="0">
-        <v>476.792</v>
+        <v>351.0709</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.66</v>
+        <v>0.6937</v>
       </c>
       <c r="B35" s="0">
-        <v>477.2993</v>
+        <v>350.1129</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.68</v>
+        <v>0.7119</v>
       </c>
       <c r="B36" s="0">
-        <v>477.2107</v>
+        <v>350.9396</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7</v>
+        <v>0.7348</v>
       </c>
       <c r="B37" s="0">
-        <v>477.4843</v>
+        <v>352.636</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.72</v>
+        <v>0.7544</v>
       </c>
       <c r="B38" s="0">
-        <v>478.9862</v>
+        <v>350.8531</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.74</v>
+        <v>0.7777</v>
       </c>
       <c r="B39" s="0">
-        <v>479.9781</v>
+        <v>353.8453</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.76</v>
+        <v>0.7995</v>
       </c>
       <c r="B40" s="0">
-        <v>479.8462</v>
+        <v>352.7029</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.78</v>
+        <v>0.8203</v>
       </c>
       <c r="B41" s="0">
-        <v>479.2091</v>
+        <v>352.841</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8</v>
+        <v>0.8439</v>
       </c>
       <c r="B42" s="0">
-        <v>479.4341</v>
+        <v>354.6516</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.82</v>
+        <v>0.8641</v>
       </c>
       <c r="B43" s="0">
-        <v>479.5139</v>
+        <v>354.9124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.84</v>
+        <v>0.8841</v>
       </c>
       <c r="B44" s="0">
-        <v>480.0685</v>
+        <v>355.6949</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.86</v>
+        <v>0.9055</v>
       </c>
       <c r="B45" s="0">
-        <v>481.146</v>
+        <v>357.9545</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.88</v>
+        <v>0.9269</v>
       </c>
       <c r="B46" s="0">
-        <v>480.4692</v>
+        <v>357.5362</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9</v>
+        <v>0.9482</v>
       </c>
       <c r="B47" s="0">
-        <v>480.0684</v>
+        <v>361.3906</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.92</v>
+        <v>0.9721</v>
       </c>
       <c r="B48" s="0">
-        <v>480.5579</v>
+        <v>367.474</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.94</v>
+        <v>0.9919</v>
       </c>
       <c r="B49" s="0">
-        <v>481.9552</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>482.6473</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>482.7187</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>378.0156</v>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8437,7 +8453,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2">
@@ -8450,378 +8466,378 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0068</v>
+        <v>0.0077</v>
       </c>
       <c r="B3" s="0">
-        <v>276.725</v>
+        <v>336.0927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0283</v>
+        <v>0.0601</v>
       </c>
       <c r="B4" s="0">
-        <v>296.6719</v>
+        <v>400.5225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0497</v>
+        <v>0.1039</v>
       </c>
       <c r="B5" s="0">
-        <v>310.159</v>
+        <v>427.4814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0687</v>
+        <v>0.125</v>
       </c>
       <c r="B6" s="0">
-        <v>315.835</v>
+        <v>435.8647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0896</v>
+        <v>0.1456</v>
       </c>
       <c r="B7" s="0">
-        <v>321.0797</v>
+        <v>443.0177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1104</v>
+        <v>0.1671</v>
       </c>
       <c r="B8" s="0">
-        <v>325.6655</v>
+        <v>450.1316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1319</v>
+        <v>0.1885</v>
       </c>
       <c r="B9" s="0">
-        <v>329.3336</v>
+        <v>456.3562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1539</v>
+        <v>0.21</v>
       </c>
       <c r="B10" s="0">
-        <v>332.2192</v>
+        <v>462.486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1754</v>
+        <v>0.2306</v>
       </c>
       <c r="B11" s="0">
-        <v>333.7842</v>
+        <v>467.1788</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1974</v>
+        <v>0.2529</v>
       </c>
       <c r="B12" s="0">
-        <v>335.1754</v>
+        <v>470.7262</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2179</v>
+        <v>0.2731</v>
       </c>
       <c r="B13" s="0">
-        <v>337.4733</v>
+        <v>475.9029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2427</v>
+        <v>0.2977</v>
       </c>
       <c r="B14" s="0">
-        <v>339.2619</v>
+        <v>481.1925</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2611</v>
+        <v>0.3165</v>
       </c>
       <c r="B15" s="0">
-        <v>340.2852</v>
+        <v>482.1511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.284</v>
+        <v>0.3388</v>
       </c>
       <c r="B16" s="0">
-        <v>342.4631</v>
+        <v>487.6572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3058</v>
+        <v>0.3615</v>
       </c>
       <c r="B17" s="0">
-        <v>341.7015</v>
+        <v>488.4772</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3269</v>
+        <v>0.3817</v>
       </c>
       <c r="B18" s="0">
-        <v>343.957</v>
+        <v>489.5068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.35</v>
+        <v>0.4028</v>
       </c>
       <c r="B19" s="0">
-        <v>343.6776</v>
+        <v>491.2955</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3685</v>
+        <v>0.4247</v>
       </c>
       <c r="B20" s="0">
-        <v>344.0172</v>
+        <v>496.763</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.393</v>
+        <v>0.4466</v>
       </c>
       <c r="B21" s="0">
-        <v>344.5719</v>
+        <v>495.8416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.412</v>
+        <v>0.4658</v>
       </c>
       <c r="B22" s="0">
-        <v>345.5873</v>
+        <v>497.739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4342</v>
+        <v>0.4906</v>
       </c>
       <c r="B23" s="0">
-        <v>346.6603</v>
+        <v>499.2449</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.454</v>
+        <v>0.5091</v>
       </c>
       <c r="B24" s="0">
-        <v>344.8777</v>
+        <v>499.5493</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4772</v>
+        <v>0.5337</v>
       </c>
       <c r="B25" s="0">
-        <v>347.8697</v>
+        <v>501.7198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4992</v>
+        <v>0.5535</v>
       </c>
       <c r="B26" s="0">
-        <v>346.2068</v>
+        <v>500.4622</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5201</v>
+        <v>0.575</v>
       </c>
       <c r="B27" s="0">
-        <v>348.4388</v>
+        <v>505.0862</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5432</v>
+        <v>0.5969</v>
       </c>
       <c r="B28" s="0">
-        <v>348.0933</v>
+        <v>503.2942</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5617</v>
+        <v>0.6161</v>
       </c>
       <c r="B29" s="0">
-        <v>348.6522</v>
+        <v>505.0009</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5845</v>
+        <v>0.6409</v>
       </c>
       <c r="B30" s="0">
-        <v>350.2173</v>
+        <v>505.679</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6041</v>
+        <v>0.6593</v>
       </c>
       <c r="B31" s="0">
-        <v>348.7011</v>
+        <v>505.8529</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6274</v>
+        <v>0.684</v>
       </c>
       <c r="B32" s="0">
-        <v>350.9998</v>
+        <v>508.2316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6495</v>
+        <v>0.7038</v>
       </c>
       <c r="B33" s="0">
-        <v>349.4347</v>
+        <v>506.7224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6704</v>
+        <v>0.7253</v>
       </c>
       <c r="B34" s="0">
-        <v>351.0709</v>
+        <v>511.2753</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6937</v>
+        <v>0.7467</v>
       </c>
       <c r="B35" s="0">
-        <v>350.1129</v>
+        <v>509.4968</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7119</v>
+        <v>0.7664</v>
       </c>
       <c r="B36" s="0">
-        <v>350.9396</v>
+        <v>510.9481</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7348</v>
+        <v>0.7912</v>
       </c>
       <c r="B37" s="0">
-        <v>352.636</v>
+        <v>511.8523</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7544</v>
+        <v>0.8111</v>
       </c>
       <c r="B38" s="0">
-        <v>350.8531</v>
+        <v>512.2712</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7777</v>
+        <v>0.8324</v>
       </c>
       <c r="B39" s="0">
-        <v>353.8453</v>
+        <v>513.5788</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7995</v>
+        <v>0.8541</v>
       </c>
       <c r="B40" s="0">
-        <v>352.7029</v>
+        <v>514.7611</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8203</v>
+        <v>0.8755</v>
       </c>
       <c r="B41" s="0">
-        <v>352.841</v>
+        <v>516.9664</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8439</v>
+        <v>0.897</v>
       </c>
       <c r="B42" s="0">
-        <v>354.6516</v>
+        <v>518.9583</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8641</v>
+        <v>0.9185</v>
       </c>
       <c r="B43" s="0">
-        <v>354.9124</v>
+        <v>521.5548</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8841</v>
+        <v>0.9399</v>
       </c>
       <c r="B44" s="0">
-        <v>355.6949</v>
+        <v>526.3423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.9055</v>
+        <v>0.9614</v>
       </c>
       <c r="B45" s="0">
-        <v>357.9545</v>
+        <v>533.6951</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9269</v>
+        <v>0.9839</v>
       </c>
       <c r="B46" s="0">
-        <v>357.5362</v>
+        <v>546.2679</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9482</v>
+        <v>1.0023</v>
       </c>
       <c r="B47" s="0">
-        <v>361.3906</v>
+        <v>557.4748</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.9721</v>
+        <v>0.0831</v>
       </c>
       <c r="B48" s="0">
-        <v>367.474</v>
+        <v>416.0401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.9919</v>
+        <v>0.0318</v>
       </c>
       <c r="B49" s="0">
-        <v>378.0156</v>
+        <v>372.9323</v>
       </c>
     </row>
     <row r="50"/>
@@ -8832,6 +8848,1234 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0103</v>
+      </c>
+      <c r="B3" s="0">
+        <v>394.2995</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0324</v>
+      </c>
+      <c r="B4" s="0">
+        <v>430.6548</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0526</v>
+      </c>
+      <c r="B5" s="0">
+        <v>455.2602</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0631</v>
+      </c>
+      <c r="B6" s="0">
+        <v>465.4845</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0836</v>
+      </c>
+      <c r="B7" s="0">
+        <v>480.5264</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1047</v>
+      </c>
+      <c r="B8" s="0">
+        <v>491.641</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1262</v>
+      </c>
+      <c r="B9" s="0">
+        <v>502.2407</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1476</v>
+      </c>
+      <c r="B10" s="0">
+        <v>511.4176</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1687</v>
+      </c>
+      <c r="B11" s="0">
+        <v>519.4664</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1902</v>
+      </c>
+      <c r="B12" s="0">
+        <v>527.2917</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2112</v>
+      </c>
+      <c r="B13" s="0">
+        <v>534.1499</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2335</v>
+      </c>
+      <c r="B14" s="0">
+        <v>543.5011</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2538</v>
+      </c>
+      <c r="B15" s="0">
+        <v>545.3957</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2765</v>
+      </c>
+      <c r="B16" s="0">
+        <v>553.674</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2998</v>
+      </c>
+      <c r="B17" s="0">
+        <v>558.2126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3176</v>
+      </c>
+      <c r="B18" s="0">
+        <v>560.2472</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3427</v>
+      </c>
+      <c r="B19" s="0">
+        <v>566.7324</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3607</v>
+      </c>
+      <c r="B20" s="0">
+        <v>569.045</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3847</v>
+      </c>
+      <c r="B21" s="0">
+        <v>574.737</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4038</v>
+      </c>
+      <c r="B22" s="0">
+        <v>574.8022</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4268</v>
+      </c>
+      <c r="B23" s="0">
+        <v>580.7778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4495</v>
+      </c>
+      <c r="B24" s="0">
+        <v>581.1859</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4697</v>
+      </c>
+      <c r="B25" s="0">
+        <v>585.8998</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.493</v>
+      </c>
+      <c r="B26" s="0">
+        <v>587.0291</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.511</v>
+      </c>
+      <c r="B27" s="0">
+        <v>588.3846</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5355</v>
+      </c>
+      <c r="B28" s="0">
+        <v>591.175</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.5541</v>
+      </c>
+      <c r="B29" s="0">
+        <v>590.2788</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.5771</v>
+      </c>
+      <c r="B30" s="0">
+        <v>594.8633</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.5994</v>
+      </c>
+      <c r="B31" s="0">
+        <v>593.035</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B32" s="0">
+        <v>596.7129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.6433</v>
+      </c>
+      <c r="B33" s="0">
+        <v>596.2238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.6616</v>
+      </c>
+      <c r="B34" s="0">
+        <v>597.4352</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.6858</v>
+      </c>
+      <c r="B35" s="0">
+        <v>598.6391</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.7042</v>
+      </c>
+      <c r="B36" s="0">
+        <v>597.9557</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7273</v>
+      </c>
+      <c r="B37" s="0">
+        <v>601.408</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.7492</v>
+      </c>
+      <c r="B38" s="0">
+        <v>599.4723</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.7703</v>
+      </c>
+      <c r="B39" s="0">
+        <v>602.902</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.7936</v>
+      </c>
+      <c r="B40" s="0">
+        <v>601.6526</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.8135</v>
+      </c>
+      <c r="B41" s="0">
+        <v>601.7211</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.8341</v>
+      </c>
+      <c r="B42" s="0">
+        <v>603.6438</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.8546</v>
+      </c>
+      <c r="B43" s="0">
+        <v>603.2774</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.8769</v>
+      </c>
+      <c r="B44" s="0">
+        <v>604.7555</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.8995</v>
+      </c>
+      <c r="B45" s="0">
+        <v>605.8973</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.9221</v>
+      </c>
+      <c r="B46" s="0">
+        <v>608.4942</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9429</v>
+      </c>
+      <c r="B47" s="0">
+        <v>612.5041</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.964</v>
+      </c>
+      <c r="B48" s="0">
+        <v>615.5759</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.985</v>
+      </c>
+      <c r="B49" s="0">
+        <v>626.7334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>1.0015</v>
+      </c>
+      <c r="B50" s="0">
+        <v>635.1278</v>
+      </c>
+    </row>
+    <row r="51"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0329</v>
+      </c>
+      <c r="B3" s="0">
+        <v>185.6148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0518</v>
+      </c>
+      <c r="B4" s="0">
+        <v>197.7328</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0691</v>
+      </c>
+      <c r="B5" s="0">
+        <v>211.3104</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0915</v>
+      </c>
+      <c r="B6" s="0">
+        <v>217.8692</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.113</v>
+      </c>
+      <c r="B7" s="0">
+        <v>226.8097</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1347</v>
+      </c>
+      <c r="B8" s="0">
+        <v>232.5071</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.156</v>
+      </c>
+      <c r="B9" s="0">
+        <v>239.3134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1782</v>
+      </c>
+      <c r="B10" s="0">
+        <v>244.8103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.1995</v>
+      </c>
+      <c r="B11" s="0">
+        <v>249.8676</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2194</v>
+      </c>
+      <c r="B12" s="0">
+        <v>255.8094</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2426</v>
+      </c>
+      <c r="B13" s="0">
+        <v>260.6125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2616</v>
+      </c>
+      <c r="B14" s="0">
+        <v>263.4873</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2839</v>
+      </c>
+      <c r="B15" s="0">
+        <v>270.1862</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3057</v>
+      </c>
+      <c r="B16" s="0">
+        <v>272.3336</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3268</v>
+      </c>
+      <c r="B17" s="0">
+        <v>276.2899</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3483</v>
+      </c>
+      <c r="B18" s="0">
+        <v>279.4366</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3681</v>
+      </c>
+      <c r="B19" s="0">
+        <v>280.6339</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.3926</v>
+      </c>
+      <c r="B20" s="0">
+        <v>284.5192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4119</v>
+      </c>
+      <c r="B21" s="0">
+        <v>286.0827</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4341</v>
+      </c>
+      <c r="B22" s="0">
+        <v>290.4678</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4548</v>
+      </c>
+      <c r="B23" s="0">
+        <v>290.9596</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4771</v>
+      </c>
+      <c r="B24" s="0">
+        <v>295.8673</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.499</v>
+      </c>
+      <c r="B25" s="0">
+        <v>295.6827</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B26" s="0">
+        <v>298.4567</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5428</v>
+      </c>
+      <c r="B27" s="0">
+        <v>300.1436</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5621</v>
+      </c>
+      <c r="B28" s="0">
+        <v>301.4637</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.5844</v>
+      </c>
+      <c r="B29" s="0">
+        <v>304.6956</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6046</v>
+      </c>
+      <c r="B30" s="0">
+        <v>305.2406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.6274</v>
+      </c>
+      <c r="B31" s="0">
+        <v>308.7434</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6492</v>
+      </c>
+      <c r="B32" s="0">
+        <v>307.7578</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.6703</v>
+      </c>
+      <c r="B33" s="0">
+        <v>309.4311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.6931</v>
+      </c>
+      <c r="B34" s="0">
+        <v>311.3919</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.7124</v>
+      </c>
+      <c r="B35" s="0">
+        <v>311.349</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.7347</v>
+      </c>
+      <c r="B36" s="0">
+        <v>313.382</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7549</v>
+      </c>
+      <c r="B37" s="0">
+        <v>312.8803</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.7776</v>
+      </c>
+      <c r="B38" s="0">
+        <v>316.7583</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.7995</v>
+      </c>
+      <c r="B39" s="0">
+        <v>315.8641</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.8203</v>
+      </c>
+      <c r="B40" s="0">
+        <v>316.7537</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.8434</v>
+      </c>
+      <c r="B41" s="0">
+        <v>317.927</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.8635</v>
+      </c>
+      <c r="B42" s="0">
+        <v>318.9647</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.885</v>
+      </c>
+      <c r="B43" s="0">
+        <v>321.4463</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.9052</v>
+      </c>
+      <c r="B44" s="0">
+        <v>322.1899</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.9276</v>
+      </c>
+      <c r="B45" s="0">
+        <v>322.4323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.9498</v>
+      </c>
+      <c r="B46" s="0">
+        <v>327.015</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9727</v>
+      </c>
+      <c r="B47" s="0">
+        <v>329.1616</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.9911</v>
+      </c>
+      <c r="B48" s="0">
+        <v>331.0753</v>
+      </c>
+    </row>
+    <row r="49"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="B3" s="0">
+        <v>339.0547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B4" s="0">
+        <v>360.6176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B5" s="0">
+        <v>379.6632</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B6" s="0">
+        <v>393.2598</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>404.3732</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B8" s="0">
+        <v>414.1816</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B9" s="0">
+        <v>423.3942</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B10" s="0">
+        <v>431.4562</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B11" s="0">
+        <v>438.0724</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>443.5115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B13" s="0">
+        <v>447.7997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B14" s="0">
+        <v>452.9431</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B15" s="0">
+        <v>456.4121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B16" s="0">
+        <v>459.4613</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="0">
+        <v>462.1505</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B18" s="0">
+        <v>463.2666</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B19" s="0">
+        <v>466.091</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B20" s="0">
+        <v>467.7907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B21" s="0">
+        <v>468.287</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="0">
+        <v>469.7919</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B23" s="0">
+        <v>469.8206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B24" s="0">
+        <v>471.0334</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B25" s="0">
+        <v>472.6279</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B26" s="0">
+        <v>472.8185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="0">
+        <v>473.112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B28" s="0">
+        <v>473.7826</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B29" s="0">
+        <v>475.3979</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B30" s="0">
+        <v>475.5242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B31" s="0">
+        <v>475.7252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B32" s="0">
+        <v>476.2424</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B33" s="0">
+        <v>476.2969</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B34" s="0">
+        <v>476.792</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B35" s="0">
+        <v>477.2993</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B36" s="0">
+        <v>477.2107</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B37" s="0">
+        <v>477.4843</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B38" s="0">
+        <v>478.9862</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B39" s="0">
+        <v>479.9781</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B40" s="0">
+        <v>479.8462</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B41" s="0">
+        <v>479.2091</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B42" s="0">
+        <v>479.4341</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B43" s="0">
+        <v>479.5139</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B44" s="0">
+        <v>480.0685</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B45" s="0">
+        <v>481.146</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B46" s="0">
+        <v>480.4692</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B47" s="0">
+        <v>480.0684</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B48" s="0">
+        <v>480.5579</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B49" s="0">
+        <v>481.9552</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B50" s="0">
+        <v>482.6473</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.98</v>
+      </c>
+      <c r="B51" s="0">
+        <v>482.7187</v>
+      </c>
+    </row>
+    <row r="52"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -9139,411 +10383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0077</v>
-      </c>
-      <c r="B3" s="0">
-        <v>336.0927</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0601</v>
-      </c>
-      <c r="B4" s="0">
-        <v>400.5225</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1039</v>
-      </c>
-      <c r="B5" s="0">
-        <v>427.4814</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.125</v>
-      </c>
-      <c r="B6" s="0">
-        <v>435.8647</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1456</v>
-      </c>
-      <c r="B7" s="0">
-        <v>443.0177</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1671</v>
-      </c>
-      <c r="B8" s="0">
-        <v>450.1316</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1885</v>
-      </c>
-      <c r="B9" s="0">
-        <v>456.3562</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.21</v>
-      </c>
-      <c r="B10" s="0">
-        <v>462.486</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2306</v>
-      </c>
-      <c r="B11" s="0">
-        <v>467.1788</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2529</v>
-      </c>
-      <c r="B12" s="0">
-        <v>470.7262</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2731</v>
-      </c>
-      <c r="B13" s="0">
-        <v>475.9029</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2977</v>
-      </c>
-      <c r="B14" s="0">
-        <v>481.1925</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3165</v>
-      </c>
-      <c r="B15" s="0">
-        <v>482.1511</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3388</v>
-      </c>
-      <c r="B16" s="0">
-        <v>487.6572</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3615</v>
-      </c>
-      <c r="B17" s="0">
-        <v>488.4772</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3817</v>
-      </c>
-      <c r="B18" s="0">
-        <v>489.5068</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4028</v>
-      </c>
-      <c r="B19" s="0">
-        <v>491.2955</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4247</v>
-      </c>
-      <c r="B20" s="0">
-        <v>496.763</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4466</v>
-      </c>
-      <c r="B21" s="0">
-        <v>495.8416</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4658</v>
-      </c>
-      <c r="B22" s="0">
-        <v>497.739</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4906</v>
-      </c>
-      <c r="B23" s="0">
-        <v>499.2449</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5091</v>
-      </c>
-      <c r="B24" s="0">
-        <v>499.5493</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.5337</v>
-      </c>
-      <c r="B25" s="0">
-        <v>501.7198</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.5535</v>
-      </c>
-      <c r="B26" s="0">
-        <v>500.4622</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.575</v>
-      </c>
-      <c r="B27" s="0">
-        <v>505.0862</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5969</v>
-      </c>
-      <c r="B28" s="0">
-        <v>503.2942</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6161</v>
-      </c>
-      <c r="B29" s="0">
-        <v>505.0009</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6409</v>
-      </c>
-      <c r="B30" s="0">
-        <v>505.679</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6593</v>
-      </c>
-      <c r="B31" s="0">
-        <v>505.8529</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.684</v>
-      </c>
-      <c r="B32" s="0">
-        <v>508.2316</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7038</v>
-      </c>
-      <c r="B33" s="0">
-        <v>506.7224</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7253</v>
-      </c>
-      <c r="B34" s="0">
-        <v>511.2753</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7467</v>
-      </c>
-      <c r="B35" s="0">
-        <v>509.4968</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7664</v>
-      </c>
-      <c r="B36" s="0">
-        <v>510.9481</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7912</v>
-      </c>
-      <c r="B37" s="0">
-        <v>511.8523</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8111</v>
-      </c>
-      <c r="B38" s="0">
-        <v>512.2712</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8324</v>
-      </c>
-      <c r="B39" s="0">
-        <v>513.5788</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8541</v>
-      </c>
-      <c r="B40" s="0">
-        <v>514.7611</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8755</v>
-      </c>
-      <c r="B41" s="0">
-        <v>516.9664</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.897</v>
-      </c>
-      <c r="B42" s="0">
-        <v>518.9583</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9185</v>
-      </c>
-      <c r="B43" s="0">
-        <v>521.5548</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9399</v>
-      </c>
-      <c r="B44" s="0">
-        <v>526.3423</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9614</v>
-      </c>
-      <c r="B45" s="0">
-        <v>533.6951</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9839</v>
-      </c>
-      <c r="B46" s="0">
-        <v>546.2679</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>1.0023</v>
-      </c>
-      <c r="B47" s="0">
-        <v>557.4748</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0831</v>
-      </c>
-      <c r="B48" s="0">
-        <v>416.0401</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0318</v>
-      </c>
-      <c r="B49" s="0">
-        <v>372.9323</v>
-      </c>
-    </row>
-    <row r="50"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -9953,812 +10793,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0103</v>
-      </c>
-      <c r="B3" s="0">
-        <v>394.2995</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0324</v>
-      </c>
-      <c r="B4" s="0">
-        <v>430.6548</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0526</v>
-      </c>
-      <c r="B5" s="0">
-        <v>455.2602</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0631</v>
-      </c>
-      <c r="B6" s="0">
-        <v>465.4845</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0836</v>
-      </c>
-      <c r="B7" s="0">
-        <v>480.5264</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1047</v>
-      </c>
-      <c r="B8" s="0">
-        <v>491.641</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1262</v>
-      </c>
-      <c r="B9" s="0">
-        <v>502.2407</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1476</v>
-      </c>
-      <c r="B10" s="0">
-        <v>511.4176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1687</v>
-      </c>
-      <c r="B11" s="0">
-        <v>519.4664</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1902</v>
-      </c>
-      <c r="B12" s="0">
-        <v>527.2917</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2112</v>
-      </c>
-      <c r="B13" s="0">
-        <v>534.1499</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2335</v>
-      </c>
-      <c r="B14" s="0">
-        <v>543.5011</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2538</v>
-      </c>
-      <c r="B15" s="0">
-        <v>545.3957</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2765</v>
-      </c>
-      <c r="B16" s="0">
-        <v>553.674</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2998</v>
-      </c>
-      <c r="B17" s="0">
-        <v>558.2126</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3176</v>
-      </c>
-      <c r="B18" s="0">
-        <v>560.2472</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3427</v>
-      </c>
-      <c r="B19" s="0">
-        <v>566.7324</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3607</v>
-      </c>
-      <c r="B20" s="0">
-        <v>569.045</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3847</v>
-      </c>
-      <c r="B21" s="0">
-        <v>574.737</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4038</v>
-      </c>
-      <c r="B22" s="0">
-        <v>574.8022</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4268</v>
-      </c>
-      <c r="B23" s="0">
-        <v>580.7778</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4495</v>
-      </c>
-      <c r="B24" s="0">
-        <v>581.1859</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4697</v>
-      </c>
-      <c r="B25" s="0">
-        <v>585.8998</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.493</v>
-      </c>
-      <c r="B26" s="0">
-        <v>587.0291</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.511</v>
-      </c>
-      <c r="B27" s="0">
-        <v>588.3846</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5355</v>
-      </c>
-      <c r="B28" s="0">
-        <v>591.175</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5541</v>
-      </c>
-      <c r="B29" s="0">
-        <v>590.2788</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.5771</v>
-      </c>
-      <c r="B30" s="0">
-        <v>594.8633</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5994</v>
-      </c>
-      <c r="B31" s="0">
-        <v>593.035</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>596.7129</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6433</v>
-      </c>
-      <c r="B33" s="0">
-        <v>596.2238</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6616</v>
-      </c>
-      <c r="B34" s="0">
-        <v>597.4352</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6858</v>
-      </c>
-      <c r="B35" s="0">
-        <v>598.6391</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7042</v>
-      </c>
-      <c r="B36" s="0">
-        <v>597.9557</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7273</v>
-      </c>
-      <c r="B37" s="0">
-        <v>601.408</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7492</v>
-      </c>
-      <c r="B38" s="0">
-        <v>599.4723</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7703</v>
-      </c>
-      <c r="B39" s="0">
-        <v>602.902</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7936</v>
-      </c>
-      <c r="B40" s="0">
-        <v>601.6526</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8135</v>
-      </c>
-      <c r="B41" s="0">
-        <v>601.7211</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8341</v>
-      </c>
-      <c r="B42" s="0">
-        <v>603.6438</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8546</v>
-      </c>
-      <c r="B43" s="0">
-        <v>603.2774</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8769</v>
-      </c>
-      <c r="B44" s="0">
-        <v>604.7555</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8995</v>
-      </c>
-      <c r="B45" s="0">
-        <v>605.8973</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9221</v>
-      </c>
-      <c r="B46" s="0">
-        <v>608.4942</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9429</v>
-      </c>
-      <c r="B47" s="0">
-        <v>612.5041</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.964</v>
-      </c>
-      <c r="B48" s="0">
-        <v>615.5759</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.985</v>
-      </c>
-      <c r="B49" s="0">
-        <v>626.7334</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>1.0015</v>
-      </c>
-      <c r="B50" s="0">
-        <v>635.1278</v>
-      </c>
-    </row>
-    <row r="51"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0329</v>
-      </c>
-      <c r="B3" s="0">
-        <v>185.6148</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0518</v>
-      </c>
-      <c r="B4" s="0">
-        <v>197.7328</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0691</v>
-      </c>
-      <c r="B5" s="0">
-        <v>211.3104</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0915</v>
-      </c>
-      <c r="B6" s="0">
-        <v>217.8692</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.113</v>
-      </c>
-      <c r="B7" s="0">
-        <v>226.8097</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1347</v>
-      </c>
-      <c r="B8" s="0">
-        <v>232.5071</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.156</v>
-      </c>
-      <c r="B9" s="0">
-        <v>239.3134</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1782</v>
-      </c>
-      <c r="B10" s="0">
-        <v>244.8103</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1995</v>
-      </c>
-      <c r="B11" s="0">
-        <v>249.8676</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2194</v>
-      </c>
-      <c r="B12" s="0">
-        <v>255.8094</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2426</v>
-      </c>
-      <c r="B13" s="0">
-        <v>260.6125</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2616</v>
-      </c>
-      <c r="B14" s="0">
-        <v>263.4873</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2839</v>
-      </c>
-      <c r="B15" s="0">
-        <v>270.1862</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3057</v>
-      </c>
-      <c r="B16" s="0">
-        <v>272.3336</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3268</v>
-      </c>
-      <c r="B17" s="0">
-        <v>276.2899</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3483</v>
-      </c>
-      <c r="B18" s="0">
-        <v>279.4366</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3681</v>
-      </c>
-      <c r="B19" s="0">
-        <v>280.6339</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.3926</v>
-      </c>
-      <c r="B20" s="0">
-        <v>284.5192</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4119</v>
-      </c>
-      <c r="B21" s="0">
-        <v>286.0827</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4341</v>
-      </c>
-      <c r="B22" s="0">
-        <v>290.4678</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4548</v>
-      </c>
-      <c r="B23" s="0">
-        <v>290.9596</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4771</v>
-      </c>
-      <c r="B24" s="0">
-        <v>295.8673</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.499</v>
-      </c>
-      <c r="B25" s="0">
-        <v>295.6827</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B26" s="0">
-        <v>298.4567</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5428</v>
-      </c>
-      <c r="B27" s="0">
-        <v>300.1436</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5621</v>
-      </c>
-      <c r="B28" s="0">
-        <v>301.4637</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5844</v>
-      </c>
-      <c r="B29" s="0">
-        <v>304.6956</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6046</v>
-      </c>
-      <c r="B30" s="0">
-        <v>305.2406</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6274</v>
-      </c>
-      <c r="B31" s="0">
-        <v>308.7434</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6492</v>
-      </c>
-      <c r="B32" s="0">
-        <v>307.7578</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6703</v>
-      </c>
-      <c r="B33" s="0">
-        <v>309.4311</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6931</v>
-      </c>
-      <c r="B34" s="0">
-        <v>311.3919</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7124</v>
-      </c>
-      <c r="B35" s="0">
-        <v>311.349</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7347</v>
-      </c>
-      <c r="B36" s="0">
-        <v>313.382</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7549</v>
-      </c>
-      <c r="B37" s="0">
-        <v>312.8803</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7776</v>
-      </c>
-      <c r="B38" s="0">
-        <v>316.7583</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7995</v>
-      </c>
-      <c r="B39" s="0">
-        <v>315.8641</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8203</v>
-      </c>
-      <c r="B40" s="0">
-        <v>316.7537</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8434</v>
-      </c>
-      <c r="B41" s="0">
-        <v>317.927</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8635</v>
-      </c>
-      <c r="B42" s="0">
-        <v>318.9647</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.885</v>
-      </c>
-      <c r="B43" s="0">
-        <v>321.4463</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9052</v>
-      </c>
-      <c r="B44" s="0">
-        <v>322.1899</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9276</v>
-      </c>
-      <c r="B45" s="0">
-        <v>322.4323</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9498</v>
-      </c>
-      <c r="B46" s="0">
-        <v>327.015</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9727</v>
-      </c>
-      <c r="B47" s="0">
-        <v>329.1616</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9911</v>
-      </c>
-      <c r="B48" s="0">
-        <v>331.0753</v>
-      </c>
-    </row>
-    <row r="49"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 60 Preparation of porous carbons/Data60_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 60 Preparation of porous carbons/Data60_all_graphs_excel.xlsx
@@ -5,18 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 500  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 600  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 700  0-1-0-800 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 800  0-1-0-800 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 900  0-1-0-800 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 24%  0-1-0-800 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 33%  0-1-0-800 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 2 46%  0-1-0-800 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 2 57%  0-1-0-800 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 2 68%  0-1-0-800 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 2 78%  0-1-0-800 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 2 burn-off=15%  0-1-0-80" sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 1 500  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 600  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 700  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 800  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 900  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 24%  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 33%  0&amp;1&amp;0&amp;800 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 46%  0&amp;1&amp;0&amp;800 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2 57%  0&amp;1&amp;0&amp;800 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 2 68%  0&amp;1&amp;0&amp;800 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 2 78%  0&amp;1&amp;0&amp;800 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 2 burn-off=15%  0&amp;1&amp;0&amp;80" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -167,12 +167,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 500  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 500  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 500  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 500  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -481,12 +481,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 68%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 68%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 68%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 68%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -795,12 +795,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 78%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 78%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 78%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 78%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1109,12 +1109,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 burn-off=15%  0-1-0-80'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 burn-off=15%  0&amp;1&amp;0&amp;80'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 burn-off=15%  0-1-0-80'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 burn-off=15%  0&amp;1&amp;0&amp;80'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1423,12 +1423,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 600  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 600  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 600  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 600  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1737,12 +1737,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 700  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 700  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 700  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 700  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2051,12 +2051,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 800  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 800  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 800  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 800  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2365,12 +2365,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 900  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 900  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 900  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 900  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2679,12 +2679,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 24%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 24%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 24%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 24%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2993,12 +2993,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 33%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 33%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 33%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 33%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3307,12 +3307,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 46%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 46%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 46%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 46%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3621,12 +3621,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 57%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 57%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 57%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 57%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
